--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130999068</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R3" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R4" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -989,7 +989,7 @@
         <v>130999069</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130999084</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>130999063</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>130999070</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>130999081</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>130999082</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>130999079</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>130999066</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>130999077</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130999065</v>
+        <v>130999067</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>459953</v>
+        <v>459832</v>
       </c>
       <c r="R14" t="n">
-        <v>7058639</v>
+        <v>7058625</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130999067</v>
+        <v>130999065</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459832</v>
+        <v>459953</v>
       </c>
       <c r="R15" t="n">
-        <v>7058625</v>
+        <v>7058639</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130999061</v>
+        <v>130999072</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>459956</v>
+        <v>460119</v>
       </c>
       <c r="R16" t="n">
-        <v>7058732</v>
+        <v>7058721</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2210,10 +2210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130999072</v>
+        <v>130999061</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460119</v>
+        <v>459956</v>
       </c>
       <c r="R17" t="n">
-        <v>7058721</v>
+        <v>7058732</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2315,7 +2315,7 @@
         <v>130999078</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>130999064</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>130999083</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>130999060</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>130999074</v>
       </c>
       <c r="B22" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>130999080</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>130999076</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R3" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R4" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -2516,10 +2516,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130999083</v>
+        <v>130999060</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2527,21 +2527,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>460122</v>
+        <v>459940</v>
       </c>
       <c r="R20" t="n">
-        <v>7058724</v>
+        <v>7058751</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2618,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130999060</v>
+        <v>130999083</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,21 +2629,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>459940</v>
+        <v>460122</v>
       </c>
       <c r="R21" t="n">
-        <v>7058751</v>
+        <v>7058724</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R3" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R4" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R3" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R4" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -2312,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130999078</v>
+        <v>130999064</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2323,21 +2323,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>459771</v>
+        <v>460009</v>
       </c>
       <c r="R18" t="n">
-        <v>7058683</v>
+        <v>7058735</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2414,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130999064</v>
+        <v>130999078</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2425,21 +2425,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>460009</v>
+        <v>459771</v>
       </c>
       <c r="R19" t="n">
-        <v>7058735</v>
+        <v>7058683</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2516,10 +2516,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130999060</v>
+        <v>130999083</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2527,21 +2527,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>459940</v>
+        <v>460122</v>
       </c>
       <c r="R20" t="n">
-        <v>7058751</v>
+        <v>7058724</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2618,10 +2618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130999083</v>
+        <v>130999060</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2629,21 +2629,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>460122</v>
+        <v>459940</v>
       </c>
       <c r="R21" t="n">
-        <v>7058724</v>
+        <v>7058751</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R3" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R4" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -2312,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130999064</v>
+        <v>130999078</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2323,21 +2323,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>460009</v>
+        <v>459771</v>
       </c>
       <c r="R18" t="n">
-        <v>7058735</v>
+        <v>7058683</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2414,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130999078</v>
+        <v>130999064</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2425,21 +2425,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>459771</v>
+        <v>460009</v>
       </c>
       <c r="R19" t="n">
-        <v>7058683</v>
+        <v>7058735</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130999073</v>
+        <v>130999075</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460090</v>
+        <v>459962</v>
       </c>
       <c r="R3" t="n">
-        <v>7058767</v>
+        <v>7058771</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Mycket rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130999075</v>
+        <v>130999073</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,21 +895,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459962</v>
+        <v>460090</v>
       </c>
       <c r="R4" t="n">
-        <v>7058771</v>
+        <v>7058767</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Mycket rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1904,7 +1904,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130999067</v>
+        <v>130999065</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>459832</v>
+        <v>459953</v>
       </c>
       <c r="R14" t="n">
-        <v>7058625</v>
+        <v>7058639</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130999065</v>
+        <v>130999067</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459953</v>
+        <v>459832</v>
       </c>
       <c r="R15" t="n">
-        <v>7058639</v>
+        <v>7058625</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130999072</v>
+        <v>130999061</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>460119</v>
+        <v>459956</v>
       </c>
       <c r="R16" t="n">
-        <v>7058721</v>
+        <v>7058732</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130999061</v>
+        <v>130999072</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>459956</v>
+        <v>460119</v>
       </c>
       <c r="R17" t="n">
-        <v>7058732</v>
+        <v>7058721</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 63386-2025 artfynd.xlsx
+++ b/artfynd/A 63386-2025 artfynd.xlsx
@@ -1904,7 +1904,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130999065</v>
+        <v>130999067</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>459953</v>
+        <v>459832</v>
       </c>
       <c r="R14" t="n">
-        <v>7058639</v>
+        <v>7058625</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130999067</v>
+        <v>130999065</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459832</v>
+        <v>459953</v>
       </c>
       <c r="R15" t="n">
-        <v>7058625</v>
+        <v>7058639</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130999061</v>
+        <v>130999072</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>459956</v>
+        <v>460119</v>
       </c>
       <c r="R16" t="n">
-        <v>7058732</v>
+        <v>7058721</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130999072</v>
+        <v>130999061</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460119</v>
+        <v>459956</v>
       </c>
       <c r="R17" t="n">
-        <v>7058721</v>
+        <v>7058732</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
